--- a/class_schedules_fall_2019/AFRICANA STUDIES (AAST).xlsx
+++ b/class_schedules_fall_2019/AFRICANA STUDIES (AAST).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="150">
   <si>
     <t>101</t>
   </si>
@@ -58,18 +58,27 @@
     <t>501F</t>
   </si>
   <si>
+    <t>501</t>
+  </si>
+  <si>
     <t>501H</t>
   </si>
   <si>
     <t>502F</t>
   </si>
   <si>
+    <t>502</t>
+  </si>
+  <si>
     <t>502H</t>
   </si>
   <si>
     <t>995F</t>
   </si>
   <si>
+    <t>995</t>
+  </si>
+  <si>
     <t>995H</t>
   </si>
   <si>
@@ -79,6 +88,33 @@
     <t>02</t>
   </si>
   <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>1002</t>
   </si>
   <si>
@@ -121,21 +157,117 @@
     <t>11048</t>
   </si>
   <si>
+    <t>11049</t>
+  </si>
+  <si>
+    <t>11050</t>
+  </si>
+  <si>
+    <t>11053</t>
+  </si>
+  <si>
+    <t>11054</t>
+  </si>
+  <si>
     <t>11041</t>
   </si>
   <si>
+    <t>11042</t>
+  </si>
+  <si>
+    <t>11043</t>
+  </si>
+  <si>
+    <t>11045</t>
+  </si>
+  <si>
+    <t>11046</t>
+  </si>
+  <si>
     <t>13339</t>
   </si>
   <si>
+    <t>13341</t>
+  </si>
+  <si>
+    <t>13343</t>
+  </si>
+  <si>
+    <t>12057</t>
+  </si>
+  <si>
     <t>13340</t>
   </si>
   <si>
+    <t>13342</t>
+  </si>
+  <si>
+    <t>13344</t>
+  </si>
+  <si>
+    <t>12058</t>
+  </si>
+  <si>
     <t>10569</t>
   </si>
   <si>
+    <t>10570</t>
+  </si>
+  <si>
+    <t>10571</t>
+  </si>
+  <si>
+    <t>13345</t>
+  </si>
+  <si>
+    <t>10573</t>
+  </si>
+  <si>
+    <t>10574</t>
+  </si>
+  <si>
+    <t>10575</t>
+  </si>
+  <si>
+    <t>12059</t>
+  </si>
+  <si>
+    <t>13390</t>
+  </si>
+  <si>
     <t>10562</t>
   </si>
   <si>
+    <t>10563</t>
+  </si>
+  <si>
+    <t>10564</t>
+  </si>
+  <si>
+    <t>13346</t>
+  </si>
+  <si>
+    <t>10566</t>
+  </si>
+  <si>
+    <t>10567</t>
+  </si>
+  <si>
+    <t>10568</t>
+  </si>
+  <si>
+    <t>12060</t>
+  </si>
+  <si>
+    <t>13391</t>
+  </si>
+  <si>
+    <t>13966</t>
+  </si>
+  <si>
+    <t>13967</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -154,7 +286,7 @@
     <t>Capoeira Angola I</t>
   </si>
   <si>
-    <t>Intro African-American Music I</t>
+    <t>Intro African American Music I</t>
   </si>
   <si>
     <t>African Amer Hist Since 1865</t>
@@ -175,7 +307,7 @@
     <t>Problems: Talking Book</t>
   </si>
   <si>
-    <t>African-American Drama</t>
+    <t>African American Drama TR</t>
   </si>
   <si>
     <t>Debates in African History</t>
@@ -184,13 +316,22 @@
     <t>Senior Seminar</t>
   </si>
   <si>
-    <t>Junior Honors -</t>
-  </si>
-  <si>
-    <t>Senior Honors -</t>
-  </si>
-  <si>
-    <t>Private Reading -</t>
+    <t xml:space="preserve">Junior Honors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior Honors  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Honors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Honors  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Reading </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Reading  </t>
   </si>
   <si>
     <t>TR</t>
@@ -208,6 +349,9 @@
     <t>W</t>
   </si>
   <si>
+    <t>1000</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
@@ -220,39 +364,69 @@
     <t>Half</t>
   </si>
   <si>
-    <t>0300-0415pm</t>
-  </si>
-  <si>
-    <t>0100-0250pm</t>
-  </si>
-  <si>
-    <t>0230-0420pm</t>
-  </si>
-  <si>
-    <t>0700-0900pm</t>
-  </si>
-  <si>
-    <t>0730-0930pm</t>
-  </si>
-  <si>
-    <t>0930-1050am</t>
-  </si>
-  <si>
-    <t>0700-0815pm</t>
-  </si>
-  <si>
-    <t>1100-1215pm</t>
-  </si>
-  <si>
-    <t>0900-1200am</t>
-  </si>
-  <si>
-    <t>1000-1150am</t>
+    <t>0300</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0230</t>
+  </si>
+  <si>
+    <t>0700</t>
+  </si>
+  <si>
+    <t>0730</t>
+  </si>
+  <si>
+    <t>0930</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>0900</t>
+  </si>
+  <si>
+    <t>1150am</t>
   </si>
   <si>
     <t>TBA</t>
   </si>
   <si>
+    <t>0415pm</t>
+  </si>
+  <si>
+    <t>0250pm</t>
+  </si>
+  <si>
+    <t>0420pm</t>
+  </si>
+  <si>
+    <t>0900pm</t>
+  </si>
+  <si>
+    <t>0930pm</t>
+  </si>
+  <si>
+    <t>1050am</t>
+  </si>
+  <si>
+    <t>0815pm</t>
+  </si>
+  <si>
+    <t>1215pm</t>
+  </si>
+  <si>
+    <t>1200am</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Ofori</t>
+  </si>
+  <si>
     <t>Peterson Charles</t>
   </si>
   <si>
@@ -280,10 +454,16 @@
     <t>Coleman Johnny</t>
   </si>
   <si>
-    <t>Jackson-Smith Caro</t>
+    <t>Smith Caro</t>
   </si>
   <si>
     <t>Dinka Etana</t>
+  </si>
+  <si>
+    <t>Mensa Afia</t>
+  </si>
+  <si>
+    <t>Staff A&amp;S</t>
   </si>
 </sst>
 </file>
@@ -641,13 +821,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -678,8 +858,11 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -687,34 +870,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>125</v>
+      </c>
+      <c r="L2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -722,34 +908,37 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>125</v>
+      </c>
+      <c r="L3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -757,34 +946,37 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>125</v>
+      </c>
+      <c r="L4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -792,34 +984,37 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>125</v>
+      </c>
+      <c r="L5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -827,34 +1022,37 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>125</v>
+      </c>
+      <c r="L6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -862,34 +1060,37 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>125</v>
+      </c>
+      <c r="L7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -897,34 +1098,37 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>125</v>
+      </c>
+      <c r="L8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -932,34 +1136,37 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>125</v>
+      </c>
+      <c r="L9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -967,34 +1174,37 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>125</v>
+      </c>
+      <c r="L10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1002,34 +1212,37 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1037,34 +1250,37 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1072,34 +1288,37 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1107,34 +1326,37 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1142,34 +1364,34 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>125</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1177,171 +1399,1315 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="K16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>125</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="K17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>125</v>
+      </c>
+      <c r="L17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="K18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>135</v>
+      </c>
+      <c r="L18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="K19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>125</v>
+      </c>
+      <c r="L19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>115</v>
+      </c>
+      <c r="J21" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" t="s">
+        <v>125</v>
+      </c>
+      <c r="K24" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" t="s">
+        <v>125</v>
+      </c>
+      <c r="J26" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" t="s">
+        <v>135</v>
+      </c>
+      <c r="L26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" t="s">
+        <v>125</v>
+      </c>
+      <c r="K28" t="s">
+        <v>125</v>
+      </c>
+      <c r="L28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" t="s">
+        <v>115</v>
+      </c>
+      <c r="J29" t="s">
+        <v>125</v>
+      </c>
+      <c r="K29" t="s">
+        <v>125</v>
+      </c>
+      <c r="L29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" t="s">
+        <v>125</v>
+      </c>
+      <c r="J30" t="s">
+        <v>125</v>
+      </c>
+      <c r="K30" t="s">
+        <v>135</v>
+      </c>
+      <c r="L30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J31" t="s">
+        <v>125</v>
+      </c>
+      <c r="K31" t="s">
+        <v>125</v>
+      </c>
+      <c r="L31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" t="s">
+        <v>125</v>
+      </c>
+      <c r="K32" t="s">
+        <v>125</v>
+      </c>
+      <c r="L32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33" t="s">
+        <v>125</v>
+      </c>
+      <c r="L33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" t="s">
+        <v>114</v>
+      </c>
+      <c r="J34" t="s">
+        <v>125</v>
+      </c>
+      <c r="K34" t="s">
+        <v>125</v>
+      </c>
+      <c r="L34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" t="s">
+        <v>114</v>
+      </c>
+      <c r="J35" t="s">
+        <v>125</v>
+      </c>
+      <c r="K35" t="s">
+        <v>125</v>
+      </c>
+      <c r="L35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" t="s">
+        <v>125</v>
+      </c>
+      <c r="K36" t="s">
+        <v>136</v>
+      </c>
+      <c r="L36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" t="s">
+        <v>114</v>
+      </c>
+      <c r="I37" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" t="s">
+        <v>125</v>
+      </c>
+      <c r="K37" t="s">
+        <v>135</v>
+      </c>
+      <c r="L37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" t="s">
+        <v>125</v>
+      </c>
+      <c r="K38" t="s">
+        <v>125</v>
+      </c>
+      <c r="L38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" t="s">
+        <v>104</v>
+      </c>
+      <c r="I39" t="s">
+        <v>114</v>
+      </c>
+      <c r="J39" t="s">
+        <v>125</v>
+      </c>
+      <c r="K39" t="s">
+        <v>125</v>
+      </c>
+      <c r="L39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I40" t="s">
+        <v>114</v>
+      </c>
+      <c r="J40" t="s">
+        <v>125</v>
+      </c>
+      <c r="K40" t="s">
+        <v>125</v>
+      </c>
+      <c r="L40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="E20" t="s">
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41" t="s">
+        <v>125</v>
+      </c>
+      <c r="K41" t="s">
+        <v>125</v>
+      </c>
+      <c r="L41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42" t="s">
+        <v>115</v>
+      </c>
+      <c r="J42" t="s">
+        <v>125</v>
+      </c>
+      <c r="K42" t="s">
+        <v>125</v>
+      </c>
+      <c r="L42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="F20" t="s">
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I43" t="s">
+        <v>115</v>
+      </c>
+      <c r="J43" t="s">
+        <v>125</v>
+      </c>
+      <c r="K43" t="s">
+        <v>125</v>
+      </c>
+      <c r="L43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="G20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" t="s">
+        <v>115</v>
+      </c>
+      <c r="J44" t="s">
+        <v>125</v>
+      </c>
+      <c r="K44" t="s">
+        <v>125</v>
+      </c>
+      <c r="L44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" t="s">
+        <v>115</v>
+      </c>
+      <c r="I45" t="s">
+        <v>125</v>
+      </c>
+      <c r="J45" t="s">
+        <v>125</v>
+      </c>
+      <c r="K45" t="s">
+        <v>136</v>
+      </c>
+      <c r="L45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" t="s">
+        <v>105</v>
+      </c>
+      <c r="H46" t="s">
+        <v>115</v>
+      </c>
+      <c r="I46" t="s">
+        <v>125</v>
+      </c>
+      <c r="J46" t="s">
+        <v>125</v>
+      </c>
+      <c r="K46" t="s">
+        <v>135</v>
+      </c>
+      <c r="L46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
         <v>78</v>
       </c>
-      <c r="J20" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="E47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" t="s">
+        <v>104</v>
+      </c>
+      <c r="I47" t="s">
+        <v>115</v>
+      </c>
+      <c r="J47" t="s">
+        <v>125</v>
+      </c>
+      <c r="K47" t="s">
+        <v>125</v>
+      </c>
+      <c r="L47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48" t="s">
+        <v>104</v>
+      </c>
+      <c r="I48" t="s">
+        <v>115</v>
+      </c>
+      <c r="J48" t="s">
+        <v>125</v>
+      </c>
+      <c r="K48" t="s">
+        <v>125</v>
+      </c>
+      <c r="L48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s">
+        <v>104</v>
+      </c>
+      <c r="I49" t="s">
+        <v>115</v>
+      </c>
+      <c r="J49" t="s">
+        <v>125</v>
+      </c>
+      <c r="K49" t="s">
+        <v>125</v>
+      </c>
+      <c r="L49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" t="s">
+        <v>115</v>
+      </c>
+      <c r="J50" t="s">
+        <v>125</v>
+      </c>
+      <c r="K50" t="s">
+        <v>125</v>
+      </c>
+      <c r="L50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s">
+        <v>104</v>
+      </c>
+      <c r="I51" t="s">
+        <v>115</v>
+      </c>
+      <c r="J51" t="s">
+        <v>125</v>
+      </c>
+      <c r="K51" t="s">
+        <v>125</v>
+      </c>
+      <c r="L51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" t="s">
         <v>83</v>
+      </c>
+      <c r="E52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" t="s">
+        <v>104</v>
+      </c>
+      <c r="I52" t="s">
+        <v>115</v>
+      </c>
+      <c r="J52" t="s">
+        <v>125</v>
+      </c>
+      <c r="K52" t="s">
+        <v>125</v>
+      </c>
+      <c r="L52" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
